--- a/nicolet_labo10.xlsx
+++ b/nicolet_labo10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db2b226385558a2/HEIG-VD/2022-2023/PRG1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41788\OneDrive\HEIG-VD\2022-2023\PRG1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D9D64A577C15A4A5418ACA85B74FC5ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A224994-B228-4EE9-A146-779ED2AEAAC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD01125-083A-4835-9AF0-ABC4D776E361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="1248" windowWidth="18876" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,10 +1436,30 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A15" s="1">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>100000000000000</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1E+16</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
